--- a/data/trans_orig/P23_1_2016_2023_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R2-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>223826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197471</v>
+        <v>196884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251371</v>
+        <v>249852</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1984274548592631</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.175063009911378</v>
+        <v>0.1745425897030035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2228469511405059</v>
+        <v>0.2215007340735081</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -763,19 +763,19 @@
         <v>109172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90259</v>
+        <v>89617</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132529</v>
+        <v>129130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08675116551898197</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07172247148895243</v>
+        <v>0.07121201287815676</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.105311479055274</v>
+        <v>0.1026102315214086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>318</v>
@@ -784,19 +784,19 @@
         <v>332998</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>297796</v>
+        <v>300811</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>368430</v>
+        <v>369092</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1395369353322486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1247863892834155</v>
+        <v>0.1260497201129434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1543840870648794</v>
+        <v>0.1546616618313814</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>904171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>876626</v>
+        <v>878145</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>930526</v>
+        <v>931113</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8015725451407368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7771530488594942</v>
+        <v>0.7784992659264919</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8249369900886223</v>
+        <v>0.8254574102969966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1085</v>
@@ -834,19 +834,19 @@
         <v>1149280</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1125923</v>
+        <v>1129322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1168193</v>
+        <v>1168835</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.913248834481018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.894688520944726</v>
+        <v>0.8973897684785914</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9282775285110476</v>
+        <v>0.9287879871218434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1935</v>
@@ -855,19 +855,19 @@
         <v>2053451</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2018019</v>
+        <v>2017357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2088653</v>
+        <v>2085638</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8604630646677514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8456159129351207</v>
+        <v>0.8453383381686186</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8752136107165845</v>
+        <v>0.8739502798870566</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>176962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154128</v>
+        <v>155915</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>203558</v>
+        <v>204602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1947147510690312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.169590349320201</v>
+        <v>0.171556935172461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2239794692736617</v>
+        <v>0.2251275402852766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -980,19 +980,19 @@
         <v>106983</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88124</v>
+        <v>89008</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128308</v>
+        <v>129650</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1066377900697038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08783954017667239</v>
+        <v>0.08872062349541074</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1278945494938035</v>
+        <v>0.1292318914841492</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>280</v>
@@ -1001,19 +1001,19 @@
         <v>283944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252655</v>
+        <v>255205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>313823</v>
+        <v>315940</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1485018250474405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1321378468040613</v>
+        <v>0.1334711589539975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1641283882993839</v>
+        <v>0.1652356136852703</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>731863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>705267</v>
+        <v>704223</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>754697</v>
+        <v>752910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8052852489309689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7760205307263379</v>
+        <v>0.7748724597147233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.830409650679799</v>
+        <v>0.8284430648275389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>846</v>
@@ -1051,19 +1051,19 @@
         <v>896252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>874927</v>
+        <v>873585</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>915111</v>
+        <v>914227</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8933622099302962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8721054505061966</v>
+        <v>0.8707681085158508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9121604598233276</v>
+        <v>0.9112793765045892</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1549</v>
@@ -1072,19 +1072,19 @@
         <v>1628116</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1598237</v>
+        <v>1596120</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1659405</v>
+        <v>1656855</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8514981749525594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8358716117006162</v>
+        <v>0.8347643863147296</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8678621531959388</v>
+        <v>0.8665288410460024</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>181555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156223</v>
+        <v>158087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205604</v>
+        <v>207366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2209171331228999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1900928728554032</v>
+        <v>0.1923618948980116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2501807860017557</v>
+        <v>0.2523246480226394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1197,19 +1197,19 @@
         <v>96041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78713</v>
+        <v>79459</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116742</v>
+        <v>116648</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1247333148415529</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1022289204171384</v>
+        <v>0.1031979165948889</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1516187245070674</v>
+        <v>0.1514967085922627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>265</v>
@@ -1218,19 +1218,19 @@
         <v>277596</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>246704</v>
+        <v>247537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>307470</v>
+        <v>308009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1743918249731682</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1549847206958488</v>
+        <v>0.1555082137537241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1931593883422497</v>
+        <v>0.1934983896551675</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>640268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>616219</v>
+        <v>614457</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>665600</v>
+        <v>663736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7790828668771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7498192139982445</v>
+        <v>0.7476753519773607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8099071271445969</v>
+        <v>0.8076381051019884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>636</v>
@@ -1268,19 +1268,19 @@
         <v>673929</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653228</v>
+        <v>653322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>691257</v>
+        <v>690511</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8752666851584471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8483812754929326</v>
+        <v>0.8485032914077373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8977710795828615</v>
+        <v>0.8968020834051109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1247</v>
@@ -1289,19 +1289,19 @@
         <v>1314197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1284323</v>
+        <v>1283784</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1345089</v>
+        <v>1344256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8256081750268318</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8068406116577506</v>
+        <v>0.8065016103448325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8450152793041512</v>
+        <v>0.8444917862462759</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>114567</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94382</v>
+        <v>93580</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133168</v>
+        <v>132738</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2261033557777812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.186268335658019</v>
+        <v>0.1846853908029147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2628140964652694</v>
+        <v>0.2619652472259124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1414,19 +1414,19 @@
         <v>71999</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56346</v>
+        <v>56164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88950</v>
+        <v>88474</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.147027791305581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1150621980861398</v>
+        <v>0.1146913167325126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1816416569366388</v>
+        <v>0.1806700212349122</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -1435,19 +1435,19 @@
         <v>186566</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164091</v>
+        <v>160715</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212745</v>
+        <v>211297</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.187240278248212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1646840367673201</v>
+        <v>0.1612962191753466</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.213514450897585</v>
+        <v>0.212060913574681</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>392134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>373533</v>
+        <v>373963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>412319</v>
+        <v>413121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7738966442222188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7371859035347307</v>
+        <v>0.7380347527740876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8137316643419811</v>
+        <v>0.8153146091970853</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>388</v>
@@ -1485,19 +1485,19 @@
         <v>417699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>400748</v>
+        <v>401224</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>433352</v>
+        <v>433534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.852972208694419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8183583430633612</v>
+        <v>0.8193299787650878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8849378019138602</v>
+        <v>0.8853086832674875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>752</v>
@@ -1506,19 +1506,19 @@
         <v>809832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>783653</v>
+        <v>785101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>832307</v>
+        <v>835683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.812759721751788</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.786485549102415</v>
+        <v>0.787939086425319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8353159632326799</v>
+        <v>0.8387037808246534</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>696909</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>652974</v>
+        <v>652282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>748966</v>
+        <v>743422</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.207083842355846</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1940288947375951</v>
+        <v>0.1938232729864128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2225525684764522</v>
+        <v>0.2209051667424957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>362</v>
@@ -1631,19 +1631,19 @@
         <v>384195</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>347157</v>
+        <v>350444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>423892</v>
+        <v>424426</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1091043235794684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09858624738728144</v>
+        <v>0.09951981138984207</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1203775849065741</v>
+        <v>0.1205292030166798</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1037</v>
@@ -1652,19 +1652,19 @@
         <v>1081104</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1018454</v>
+        <v>1025014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1141059</v>
+        <v>1148006</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1569842911147827</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1478871098814675</v>
+        <v>0.1488396183214004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1656902333508992</v>
+        <v>0.1666990116453083</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2668437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2616380</v>
+        <v>2621924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2712372</v>
+        <v>2713064</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.792916157644154</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7774474315235472</v>
+        <v>0.7790948332575042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8059711052624047</v>
+        <v>0.8061767270135866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2955</v>
@@ -1702,19 +1702,19 @@
         <v>3137159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3097462</v>
+        <v>3096928</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3174197</v>
+        <v>3170910</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8908956764205316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8796224150934259</v>
+        <v>0.8794707969833202</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9014137526127185</v>
+        <v>0.9004801886101579</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5483</v>
@@ -1723,19 +1723,19 @@
         <v>5805596</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5745641</v>
+        <v>5738694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5868246</v>
+        <v>5861686</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8430157088852174</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8343097666491007</v>
+        <v>0.8333009883546915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8521128901185325</v>
+        <v>0.8511603816785995</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>88597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71317</v>
+        <v>73503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105171</v>
+        <v>107510</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1776422769030569</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1429947587921669</v>
+        <v>0.1473768889000342</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2108729694421842</v>
+        <v>0.2155637044420409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -2088,19 +2088,19 @@
         <v>51073</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40413</v>
+        <v>39601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63914</v>
+        <v>62844</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08190343058409648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06480777934270372</v>
+        <v>0.06350592511159675</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1024944678005515</v>
+        <v>0.1007790957595925</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -2109,19 +2109,19 @@
         <v>139671</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118319</v>
+        <v>119806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160152</v>
+        <v>164267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1244481109487992</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1054239396173358</v>
+        <v>0.1067488988529933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1426975719575511</v>
+        <v>0.1463635731395753</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>410142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>393568</v>
+        <v>391229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427422</v>
+        <v>425236</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8223577230969431</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.789127030557816</v>
+        <v>0.7844362955579591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8570052412078332</v>
+        <v>0.8526231110999657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>792</v>
@@ -2159,19 +2159,19 @@
         <v>572507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559666</v>
+        <v>560736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>583167</v>
+        <v>583979</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9180965694159035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8975055321994485</v>
+        <v>0.8992209042404076</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9351922206572968</v>
+        <v>0.9364940748884034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1152</v>
@@ -2180,19 +2180,19 @@
         <v>982649</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>962168</v>
+        <v>958053</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1004001</v>
+        <v>1002514</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8755518890512007</v>
+        <v>0.8755518890512008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8573024280424486</v>
+        <v>0.8536364268604246</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8945760603826642</v>
+        <v>0.8932511011470067</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>194317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172933</v>
+        <v>171700</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>221652</v>
+        <v>220765</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2023848903366471</v>
+        <v>0.2023848903366472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1801129029301154</v>
+        <v>0.1788285087904409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2308548041234763</v>
+        <v>0.2299310724991213</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -2305,19 +2305,19 @@
         <v>87757</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73427</v>
+        <v>73559</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104081</v>
+        <v>104853</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07864571574982106</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06580381784863949</v>
+        <v>0.06592190465709913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09327535050949783</v>
+        <v>0.09396666462257466</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>351</v>
@@ -2326,19 +2326,19 @@
         <v>282074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>253671</v>
+        <v>255731</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>313673</v>
+        <v>312524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1358746761608779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1221930023607746</v>
+        <v>0.1231851638769541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1510960568451213</v>
+        <v>0.1505424704994598</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>765820</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>738485</v>
+        <v>739372</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>787204</v>
+        <v>788437</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7976151096633529</v>
+        <v>0.797615109663353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.769145195876524</v>
+        <v>0.7700689275008786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8198870970698846</v>
+        <v>0.8211714912095591</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1481</v>
@@ -2376,19 +2376,19 @@
         <v>1028092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1011768</v>
+        <v>1010996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1042422</v>
+        <v>1042290</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9213542842501788</v>
+        <v>0.921354284250179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.906724649490502</v>
+        <v>0.9060333353774253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9341961821513605</v>
+        <v>0.9340780953429006</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2166</v>
@@ -2397,19 +2397,19 @@
         <v>1793912</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1762313</v>
+        <v>1763462</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1822315</v>
+        <v>1820255</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8641253238391221</v>
+        <v>0.8641253238391219</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8489039431548787</v>
+        <v>0.8494575295005403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8778069976392253</v>
+        <v>0.876814836123046</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>166354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145694</v>
+        <v>143343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191164</v>
+        <v>190046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.158965281559635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.139223166212914</v>
+        <v>0.1369767249576094</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1826735328164419</v>
+        <v>0.1816056025533028</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>134</v>
@@ -2522,19 +2522,19 @@
         <v>92402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77767</v>
+        <v>78562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110147</v>
+        <v>108819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08820021641622726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07423076280908457</v>
+        <v>0.07498897434223996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1051376553970268</v>
+        <v>0.1038699709240632</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>335</v>
@@ -2543,19 +2543,19 @@
         <v>258756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>232455</v>
+        <v>231412</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287904</v>
+        <v>286890</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1235631096519998</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.111003793537484</v>
+        <v>0.1105053623701333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1374819525953159</v>
+        <v>0.1369978564405469</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>880125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>855315</v>
+        <v>856433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>900785</v>
+        <v>903136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.841034718440365</v>
+        <v>0.8410347184403651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8173264671835585</v>
+        <v>0.8183943974466973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8607768337870859</v>
+        <v>0.8630232750423905</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1382</v>
@@ -2593,19 +2593,19 @@
         <v>955240</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>937495</v>
+        <v>938823</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>969875</v>
+        <v>969080</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9117997835837727</v>
+        <v>0.9117997835837728</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8948623446029732</v>
+        <v>0.8961300290759364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9257692371909153</v>
+        <v>0.9250110256577598</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2210</v>
@@ -2614,19 +2614,19 @@
         <v>1835365</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1806217</v>
+        <v>1807231</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1861666</v>
+        <v>1862709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8764368903480002</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8625180474046841</v>
+        <v>0.8630021435594531</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.888996206462516</v>
+        <v>0.8894946376298668</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>208961</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>183039</v>
+        <v>182691</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>236311</v>
+        <v>234118</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2143654523192323</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1877733036140449</v>
+        <v>0.1874167230417259</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2424236467335965</v>
+        <v>0.2401739776198437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>190</v>
@@ -2739,19 +2739,19 @@
         <v>130777</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113224</v>
+        <v>113730</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151738</v>
+        <v>149585</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1445420549797782</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1251411071105486</v>
+        <v>0.1257001319654258</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1677083833281609</v>
+        <v>0.1653291049484279</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>426</v>
@@ -2760,19 +2760,19 @@
         <v>339738</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>308574</v>
+        <v>310932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>373044</v>
+        <v>370152</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1807542840743609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.164173762149343</v>
+        <v>0.1654282751957011</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1984744566418905</v>
+        <v>0.1969355456290938</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>765826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>738476</v>
+        <v>740669</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>791748</v>
+        <v>792096</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7856345476807678</v>
+        <v>0.7856345476807676</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7575763532664034</v>
+        <v>0.7598260223801561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8122266963859551</v>
+        <v>0.8125832769582739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1128</v>
@@ -2810,19 +2810,19 @@
         <v>773993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>753032</v>
+        <v>755185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>791546</v>
+        <v>791040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8554579450202218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.832291616671839</v>
+        <v>0.834670895051572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8748588928894513</v>
+        <v>0.8742998680345742</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1838</v>
@@ -2831,19 +2831,19 @@
         <v>1539820</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1506514</v>
+        <v>1509406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1570984</v>
+        <v>1568626</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8192457159256391</v>
+        <v>0.8192457159256389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8015255433581091</v>
+        <v>0.8030644543709061</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8358262378506569</v>
+        <v>0.8345717248042988</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>658229</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>614691</v>
+        <v>614204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>706893</v>
+        <v>705149</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1891384994067222</v>
+        <v>0.1891384994067221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1766279622258969</v>
+        <v>0.176488290213265</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2031219086776201</v>
+        <v>0.2026207039223088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>519</v>
@@ -2956,19 +2956,19 @@
         <v>362010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>332322</v>
+        <v>331932</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>392174</v>
+        <v>393318</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09805667503010528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09001531922737627</v>
+        <v>0.0899097272150477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1062271952463133</v>
+        <v>0.1065370363245727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1276</v>
@@ -2977,19 +2977,19 @@
         <v>1020239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>967221</v>
+        <v>965490</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1075648</v>
+        <v>1079814</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1422533358149096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1348609751234819</v>
+        <v>0.1346196128249406</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1499791715050358</v>
+        <v>0.1505599990919741</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2821914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2773250</v>
+        <v>2774994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2865452</v>
+        <v>2865939</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8108615005932779</v>
+        <v>0.8108615005932778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.79687809132238</v>
+        <v>0.7973792960776914</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8233720377741033</v>
+        <v>0.8235117097867358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4783</v>
@@ -3027,19 +3027,19 @@
         <v>3329831</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3299667</v>
+        <v>3298523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3359519</v>
+        <v>3359909</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9019433249698947</v>
+        <v>0.9019433249698948</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8937728047536866</v>
+        <v>0.8934629636754272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9099846807726236</v>
+        <v>0.9100902727849519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7366</v>
@@ -3048,19 +3048,19 @@
         <v>6151745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6096336</v>
+        <v>6092170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6204763</v>
+        <v>6206494</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8577466641850904</v>
+        <v>0.8577466641850903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.850020828494964</v>
+        <v>0.8494400009080258</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8651390248765177</v>
+        <v>0.8653803871750595</v>
       </c>
     </row>
     <row r="18">
